--- a/ISS_Public_Telemetry.xlsx
+++ b/ISS_Public_Telemetry.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru733d\Desktop\Mimic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\Mimic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C0255C-B601-4BA8-8D2E-70422E0D77B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Telemetry Values" sheetId="2" r:id="rId1"/>
     <sheet name="ISS System Modes" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="PUIList" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="PUIList" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\ru733d\Desktop\PUIList.xml" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="1401">
   <si>
     <t>AIRLOCK000001</t>
   </si>
@@ -3978,12 +3984,270 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>MSS MT Position Float</t>
+  </si>
+  <si>
+    <t>MSS EDCD SSRMS Base Location</t>
+  </si>
+  <si>
+    <t>SSRMS SR Measured Joint Position</t>
+  </si>
+  <si>
+    <t>SSRMS SY Measured Joint Position</t>
+  </si>
+  <si>
+    <t>SSRMS SP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>SSRMS EP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>SSRMS WP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>SSRMS WY Measured Joint Position</t>
+  </si>
+  <si>
+    <t>SSRMS WR Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS Payload Status SSRMS Tip LEE</t>
+  </si>
+  <si>
+    <t>MSS OCS Base Location SPDM</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 SR Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 SY Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 SP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 EP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 WP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 WY Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 1 WR Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS Payload Status OCS SPDM Arm 1 OTCM</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 SR Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 SY Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 SP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 EP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 WP Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 WY Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM 2 WR Measured Joint Position</t>
+  </si>
+  <si>
+    <t>MSS Payload Status OCS SPDM Arm 2 OTCM</t>
+  </si>
+  <si>
+    <t>MSS OCS SPDM Body Roll Joint Position</t>
+  </si>
+  <si>
+    <t>MSS Payload Status OCS SPDM Body</t>
+  </si>
+  <si>
+    <t>MSS OCS Payload Status MBS MCAS</t>
+  </si>
+  <si>
+    <t>MSS OCS Payload Status MBS POA</t>
+  </si>
+  <si>
+    <t>CSAMT000001</t>
+  </si>
+  <si>
+    <t>CSASSRMS001</t>
+  </si>
+  <si>
+    <t>CSASSRMS002</t>
+  </si>
+  <si>
+    <t>CSASSRMS003</t>
+  </si>
+  <si>
+    <t>CSASSRMS004</t>
+  </si>
+  <si>
+    <t>CSASSRMS005</t>
+  </si>
+  <si>
+    <t>CSASSRMS006</t>
+  </si>
+  <si>
+    <t>CSASSRMS007</t>
+  </si>
+  <si>
+    <t>CSASSRMS008</t>
+  </si>
+  <si>
+    <t>CSASSRMS009</t>
+  </si>
+  <si>
+    <t>CSASSRMS010</t>
+  </si>
+  <si>
+    <t>CSASSRMS011</t>
+  </si>
+  <si>
+    <t>CSASPDM0001</t>
+  </si>
+  <si>
+    <t>CSASPDM0002</t>
+  </si>
+  <si>
+    <t>CSASPDM0003</t>
+  </si>
+  <si>
+    <t>CSASPDM0004</t>
+  </si>
+  <si>
+    <t>CSASPDM0005</t>
+  </si>
+  <si>
+    <t>CSASPDM0006</t>
+  </si>
+  <si>
+    <t>CSASPDM0007</t>
+  </si>
+  <si>
+    <t>CSASPDM0008</t>
+  </si>
+  <si>
+    <t>CSASPDM0009</t>
+  </si>
+  <si>
+    <t>CSASPDM0010</t>
+  </si>
+  <si>
+    <t>CSASPDM0011</t>
+  </si>
+  <si>
+    <t>CSASPDM0012</t>
+  </si>
+  <si>
+    <t>CSASPDM0013</t>
+  </si>
+  <si>
+    <t>CSASPDM0014</t>
+  </si>
+  <si>
+    <t>CSASPDM0015</t>
+  </si>
+  <si>
+    <t>CSASPDM0016</t>
+  </si>
+  <si>
+    <t>CSASPDM0017</t>
+  </si>
+  <si>
+    <t>CSASPDM0018</t>
+  </si>
+  <si>
+    <t>CSASPDM0019</t>
+  </si>
+  <si>
+    <t>CSASPDM0020</t>
+  </si>
+  <si>
+    <t>CSASPDM0021</t>
+  </si>
+  <si>
+    <t>CSASPDM0022</t>
+  </si>
+  <si>
+    <t>CSAMBS00001</t>
+  </si>
+  <si>
+    <t>CSAMBS00002</t>
+  </si>
+  <si>
+    <t>CSAMBA00004</t>
+  </si>
+  <si>
+    <t>CSAMBA00003</t>
+  </si>
+  <si>
+    <t>MSS OCS Payload Status MBS POA?</t>
+  </si>
+  <si>
+    <t>0=Released|1=Captured</t>
+  </si>
+  <si>
+    <t>MSS OCS Payload Status MBS MCAS?</t>
+  </si>
+  <si>
+    <t>MSS Payload Status OCS SPDM Body?</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Position, centimeters from 0</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MSS MT Utility Port ID (which Worksite MT is connected to, WS1 though WS8)</t>
+  </si>
+  <si>
+    <t>MSS Payload Status OCS SPDM Arm 2 OTCM?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>MSS EDCD SSRMS Operating Base (Which LEE is Base)</t>
+  </si>
+  <si>
+    <t>0=Released|1=Captive|2=Captured</t>
+  </si>
+  <si>
+    <t>1=Lab | 2=Node3 | 4=Node2 | 7=MBS PDGF 1 | 8=MBS PDGF 2 | 11=MBS PDGF 3 | 13=MBS PDGF 4 | 14=FGB | 16=POA | 19=SSRMS Tip LEE | 63=Undefined</t>
+  </si>
+  <si>
+    <t>1=WS1 | 2=WS2 | 3=WS3 | 4=WS4 | 5=WS5 | 6=WS6 |7=WS7 |8=WS8</t>
+  </si>
+  <si>
+    <t>0=Lee A | 5=Lee B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4192,31 +4456,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G299" tableType="xml" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" connectionId="1">
-  <autoFilter ref="A1:G299"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G338" tableType="xml" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" connectionId="1">
+  <autoFilter ref="A1:G338" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:G299">
     <sortCondition ref="A1:A299"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="4" uniqueName="Public_PUI" name="Public_PUI" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Public_PUI" name="Public_PUI" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/ISSLivePUIList/Discipline/Symbol/Public_PUI" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="name" name="Category" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="name" name="Category" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/ISSLivePUIList/Discipline/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Description" name="Description" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="Description" name="Description" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/ISSLivePUIList/Discipline/Symbol/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="OPS_NOM" name="OPS_NOM" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="OPS_NOM" name="OPS_NOM" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/ISSLivePUIList/Discipline/Symbol/OPS_NOM" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ENG_NOM" name="ENG_NOM" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ENG_NOM" name="ENG_NOM" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/ISSLivePUIList/Discipline/Symbol/ENG_NOM" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="UNITS" name="UNITS" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="UNITS" name="UNITS" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/ISSLivePUIList/Discipline/Symbol/UNITS" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" uniqueName="1" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4484,28 +4748,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A195" sqref="A195"/>
-      <selection pane="topRight" activeCell="C280" sqref="C280"/>
+      <selection pane="topRight" activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="255.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>314</v>
       </c>
@@ -4528,7 +4793,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4816,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4839,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4597,7 +4862,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4620,7 +4885,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4908,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4666,7 +4931,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -4689,7 +4954,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4712,7 +4977,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +5000,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4758,7 +5023,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4781,7 +5046,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -4804,7 +5069,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4827,7 +5092,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4850,7 +5115,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -4873,7 +5138,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -4896,7 +5161,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +5184,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -4942,7 +5207,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -4965,7 +5230,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -4988,7 +5253,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -5011,7 +5276,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -5034,7 +5299,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -5057,7 +5322,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
@@ -5080,7 +5345,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -5103,7 +5368,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
@@ -5126,7 +5391,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -5149,7 +5414,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -5172,7 +5437,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -5195,7 +5460,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -5218,7 +5483,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
@@ -5241,7 +5506,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5529,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -5287,7 +5552,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
@@ -5310,7 +5575,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -5333,7 +5598,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
@@ -5356,7 +5621,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
@@ -5379,7 +5644,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
@@ -5402,7 +5667,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
@@ -5425,7 +5690,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
@@ -5448,7 +5713,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
@@ -5471,7 +5736,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11" t="s">
         <v>41</v>
       </c>
@@ -5494,7 +5759,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -5517,7 +5782,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11" t="s">
         <v>43</v>
       </c>
@@ -5540,7 +5805,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11" t="s">
         <v>44</v>
       </c>
@@ -5563,7 +5828,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
@@ -5586,7 +5851,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
@@ -5609,7 +5874,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -5632,7 +5897,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>49</v>
       </c>
@@ -5655,7 +5920,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -5678,7 +5943,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
@@ -5701,7 +5966,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
@@ -5724,7 +5989,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11" t="s">
         <v>53</v>
       </c>
@@ -5747,7 +6012,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -5770,7 +6035,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11" t="s">
         <v>55</v>
       </c>
@@ -5793,7 +6058,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
@@ -5816,7 +6081,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -5839,7 +6104,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11" t="s">
         <v>94</v>
       </c>
@@ -5862,7 +6127,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
         <v>95</v>
       </c>
@@ -5885,7 +6150,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -5908,7 +6173,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -5931,7 +6196,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
@@ -5954,7 +6219,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
@@ -5977,7 +6242,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
         <v>97</v>
       </c>
@@ -6000,7 +6265,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
         <v>98</v>
       </c>
@@ -6023,7 +6288,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -6046,7 +6311,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -6069,7 +6334,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -6092,7 +6357,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -6115,7 +6380,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -6138,7 +6403,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -6161,7 +6426,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -6184,7 +6449,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -6207,7 +6472,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -6230,7 +6495,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -6253,7 +6518,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -6276,7 +6541,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -6299,7 +6564,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -6322,7 +6587,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -6345,7 +6610,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -6368,7 +6633,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
         <v>99</v>
       </c>
@@ -6391,7 +6656,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
         <v>100</v>
       </c>
@@ -6414,7 +6679,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>101</v>
       </c>
@@ -6437,7 +6702,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="s">
         <v>76</v>
       </c>
@@ -6460,7 +6725,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>77</v>
       </c>
@@ -6483,7 +6748,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>78</v>
       </c>
@@ -6506,7 +6771,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="s">
         <v>102</v>
       </c>
@@ -6529,7 +6794,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>152</v>
       </c>
@@ -6552,7 +6817,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="s">
         <v>153</v>
       </c>
@@ -6575,7 +6840,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="s">
         <v>154</v>
       </c>
@@ -6598,7 +6863,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3" t="s">
         <v>182</v>
       </c>
@@ -6621,7 +6886,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>183</v>
       </c>
@@ -6644,7 +6909,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -6667,7 +6932,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="s">
         <v>184</v>
       </c>
@@ -6690,7 +6955,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
         <v>104</v>
       </c>
@@ -6713,7 +6978,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
         <v>105</v>
       </c>
@@ -6736,7 +7001,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>106</v>
       </c>
@@ -6759,7 +7024,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="s">
         <v>107</v>
       </c>
@@ -6782,7 +7047,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
         <v>155</v>
       </c>
@@ -6805,7 +7070,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
         <v>156</v>
       </c>
@@ -6828,7 +7093,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
         <v>108</v>
       </c>
@@ -6851,7 +7116,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
         <v>157</v>
       </c>
@@ -6874,7 +7139,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
         <v>158</v>
       </c>
@@ -6897,7 +7162,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3" t="s">
         <v>109</v>
       </c>
@@ -6920,7 +7185,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3" t="s">
         <v>159</v>
       </c>
@@ -6943,7 +7208,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3" t="s">
         <v>160</v>
       </c>
@@ -6966,7 +7231,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3" t="s">
         <v>161</v>
       </c>
@@ -6989,7 +7254,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
         <v>162</v>
       </c>
@@ -7012,7 +7277,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
@@ -7035,7 +7300,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="s">
         <v>163</v>
       </c>
@@ -7058,7 +7323,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3" t="s">
         <v>164</v>
       </c>
@@ -7081,7 +7346,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -7104,7 +7369,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3" t="s">
         <v>165</v>
       </c>
@@ -7127,7 +7392,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3" t="s">
         <v>166</v>
       </c>
@@ -7150,7 +7415,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
         <v>214</v>
       </c>
@@ -7173,7 +7438,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
         <v>215</v>
       </c>
@@ -7196,7 +7461,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
         <v>216</v>
       </c>
@@ -7219,7 +7484,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
         <v>217</v>
       </c>
@@ -7242,7 +7507,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
         <v>218</v>
       </c>
@@ -7265,7 +7530,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
         <v>219</v>
       </c>
@@ -7288,7 +7553,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
         <v>220</v>
       </c>
@@ -7311,7 +7576,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
         <v>221</v>
       </c>
@@ -7334,7 +7599,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
         <v>222</v>
       </c>
@@ -7357,7 +7622,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
         <v>223</v>
       </c>
@@ -7380,7 +7645,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
         <v>224</v>
       </c>
@@ -7403,7 +7668,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
         <v>225</v>
       </c>
@@ -7426,7 +7691,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
         <v>226</v>
       </c>
@@ -7449,7 +7714,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6" t="s">
         <v>227</v>
       </c>
@@ -7472,7 +7737,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
         <v>228</v>
       </c>
@@ -7495,7 +7760,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6" t="s">
         <v>229</v>
       </c>
@@ -7518,7 +7783,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
         <v>230</v>
       </c>
@@ -7541,7 +7806,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
         <v>231</v>
       </c>
@@ -7564,7 +7829,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
         <v>232</v>
       </c>
@@ -7587,7 +7852,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6" t="s">
         <v>233</v>
       </c>
@@ -7610,7 +7875,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
         <v>234</v>
       </c>
@@ -7633,7 +7898,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
         <v>235</v>
       </c>
@@ -7656,7 +7921,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
         <v>236</v>
       </c>
@@ -7679,7 +7944,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
         <v>237</v>
       </c>
@@ -7702,7 +7967,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
         <v>297</v>
       </c>
@@ -7725,7 +7990,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3" t="s">
         <v>204</v>
       </c>
@@ -7748,7 +8013,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3" t="s">
         <v>205</v>
       </c>
@@ -7771,7 +8036,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3" t="s">
         <v>206</v>
       </c>
@@ -7794,7 +8059,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3" t="s">
         <v>207</v>
       </c>
@@ -7817,7 +8082,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3" t="s">
         <v>208</v>
       </c>
@@ -7840,7 +8105,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3" t="s">
         <v>209</v>
       </c>
@@ -7863,7 +8128,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3" t="s">
         <v>210</v>
       </c>
@@ -7886,7 +8151,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="s">
         <v>211</v>
       </c>
@@ -7909,7 +8174,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3" t="s">
         <v>212</v>
       </c>
@@ -7932,7 +8197,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3" t="s">
         <v>112</v>
       </c>
@@ -7955,7 +8220,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="s">
         <v>113</v>
       </c>
@@ -7978,7 +8243,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3" t="s">
         <v>114</v>
       </c>
@@ -8001,7 +8266,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3" t="s">
         <v>115</v>
       </c>
@@ -8024,7 +8289,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3" t="s">
         <v>167</v>
       </c>
@@ -8047,7 +8312,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3" t="s">
         <v>168</v>
       </c>
@@ -8070,7 +8335,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3" t="s">
         <v>169</v>
       </c>
@@ -8093,7 +8358,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3" t="s">
         <v>185</v>
       </c>
@@ -8116,7 +8381,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="3" t="s">
         <v>238</v>
       </c>
@@ -8139,7 +8404,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3" t="s">
         <v>116</v>
       </c>
@@ -8162,7 +8427,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="3" t="s">
         <v>117</v>
       </c>
@@ -8185,7 +8450,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3" t="s">
         <v>118</v>
       </c>
@@ -8208,7 +8473,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3" t="s">
         <v>186</v>
       </c>
@@ -8231,7 +8496,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="3" t="s">
         <v>119</v>
       </c>
@@ -8254,7 +8519,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="3" t="s">
         <v>120</v>
       </c>
@@ -8277,7 +8542,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3" t="s">
         <v>170</v>
       </c>
@@ -8300,7 +8565,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3" t="s">
         <v>171</v>
       </c>
@@ -8323,7 +8588,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="3" t="s">
         <v>121</v>
       </c>
@@ -8346,7 +8611,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3" t="s">
         <v>172</v>
       </c>
@@ -8369,7 +8634,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="3" t="s">
         <v>173</v>
       </c>
@@ -8392,7 +8657,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3" t="s">
         <v>122</v>
       </c>
@@ -8415,7 +8680,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3" t="s">
         <v>174</v>
       </c>
@@ -8438,7 +8703,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3" t="s">
         <v>175</v>
       </c>
@@ -8461,7 +8726,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3" t="s">
         <v>176</v>
       </c>
@@ -8484,7 +8749,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3" t="s">
         <v>177</v>
       </c>
@@ -8507,7 +8772,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3" t="s">
         <v>123</v>
       </c>
@@ -8530,7 +8795,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3" t="s">
         <v>178</v>
       </c>
@@ -8553,7 +8818,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3" t="s">
         <v>179</v>
       </c>
@@ -8576,7 +8841,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3" t="s">
         <v>124</v>
       </c>
@@ -8599,7 +8864,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
@@ -8622,7 +8887,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3" t="s">
         <v>181</v>
       </c>
@@ -8645,7 +8910,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3" t="s">
         <v>311</v>
       </c>
@@ -8668,7 +8933,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3" t="s">
         <v>312</v>
       </c>
@@ -8691,7 +8956,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="9" t="s">
         <v>239</v>
       </c>
@@ -8714,7 +8979,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="9" t="s">
         <v>240</v>
       </c>
@@ -8737,7 +9002,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="9" t="s">
         <v>241</v>
       </c>
@@ -8760,7 +9025,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="9" t="s">
         <v>242</v>
       </c>
@@ -8783,7 +9048,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="9" t="s">
         <v>243</v>
       </c>
@@ -8806,7 +9071,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="9" t="s">
         <v>244</v>
       </c>
@@ -8829,7 +9094,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="9" t="s">
         <v>245</v>
       </c>
@@ -8852,7 +9117,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="9" t="s">
         <v>246</v>
       </c>
@@ -8875,7 +9140,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="9" t="s">
         <v>247</v>
       </c>
@@ -8898,7 +9163,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="9" t="s">
         <v>295</v>
       </c>
@@ -8921,7 +9186,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="9" t="s">
         <v>248</v>
       </c>
@@ -8944,7 +9209,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="9" t="s">
         <v>296</v>
       </c>
@@ -8967,7 +9232,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="9" t="s">
         <v>249</v>
       </c>
@@ -8990,7 +9255,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="9" t="s">
         <v>250</v>
       </c>
@@ -9013,7 +9278,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="9" t="s">
         <v>251</v>
       </c>
@@ -9036,7 +9301,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="9" t="s">
         <v>252</v>
       </c>
@@ -9059,7 +9324,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="9" t="s">
         <v>253</v>
       </c>
@@ -9082,7 +9347,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="9" t="s">
         <v>254</v>
       </c>
@@ -9105,7 +9370,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9" t="s">
         <v>255</v>
       </c>
@@ -9128,7 +9393,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="9" t="s">
         <v>256</v>
       </c>
@@ -9151,7 +9416,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="9" t="s">
         <v>257</v>
       </c>
@@ -9174,7 +9439,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="9" t="s">
         <v>258</v>
       </c>
@@ -9197,7 +9462,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="9" t="s">
         <v>259</v>
       </c>
@@ -9220,7 +9485,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="9" t="s">
         <v>260</v>
       </c>
@@ -9243,7 +9508,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="9" t="s">
         <v>261</v>
       </c>
@@ -9266,7 +9531,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="9" t="s">
         <v>262</v>
       </c>
@@ -9289,7 +9554,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="9" t="s">
         <v>263</v>
       </c>
@@ -9312,7 +9577,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="9" t="s">
         <v>264</v>
       </c>
@@ -9335,7 +9600,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="9" t="s">
         <v>265</v>
       </c>
@@ -9358,7 +9623,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="9" t="s">
         <v>266</v>
       </c>
@@ -9381,7 +9646,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="9" t="s">
         <v>267</v>
       </c>
@@ -9404,7 +9669,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="9" t="s">
         <v>298</v>
       </c>
@@ -9427,7 +9692,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="9" t="s">
         <v>299</v>
       </c>
@@ -9450,7 +9715,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="9" t="s">
         <v>300</v>
       </c>
@@ -9473,7 +9738,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="9" t="s">
         <v>301</v>
       </c>
@@ -9496,7 +9761,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="9" t="s">
         <v>302</v>
       </c>
@@ -9519,7 +9784,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="9" t="s">
         <v>303</v>
       </c>
@@ -9542,7 +9807,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="9" t="s">
         <v>268</v>
       </c>
@@ -9565,7 +9830,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="9" t="s">
         <v>269</v>
       </c>
@@ -9588,7 +9853,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="9" t="s">
         <v>270</v>
       </c>
@@ -9611,7 +9876,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="9" t="s">
         <v>271</v>
       </c>
@@ -9634,7 +9899,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="9" t="s">
         <v>272</v>
       </c>
@@ -9657,7 +9922,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="9" t="s">
         <v>273</v>
       </c>
@@ -9680,7 +9945,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="9" t="s">
         <v>274</v>
       </c>
@@ -9703,7 +9968,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="9" t="s">
         <v>275</v>
       </c>
@@ -9726,7 +9991,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="9" t="s">
         <v>276</v>
       </c>
@@ -9749,7 +10014,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="9" t="s">
         <v>277</v>
       </c>
@@ -9772,7 +10037,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="9" t="s">
         <v>278</v>
       </c>
@@ -9795,7 +10060,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="9" t="s">
         <v>279</v>
       </c>
@@ -9818,7 +10083,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="9" t="s">
         <v>280</v>
       </c>
@@ -9841,7 +10106,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="9" t="s">
         <v>281</v>
       </c>
@@ -9864,7 +10129,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="9" t="s">
         <v>282</v>
       </c>
@@ -9887,7 +10152,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="3" t="s">
         <v>79</v>
       </c>
@@ -9910,7 +10175,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="3" t="s">
         <v>80</v>
       </c>
@@ -9933,7 +10198,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="3" t="s">
         <v>81</v>
       </c>
@@ -9956,7 +10221,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="3" t="s">
         <v>82</v>
       </c>
@@ -9979,7 +10244,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="3" t="s">
         <v>83</v>
       </c>
@@ -10002,7 +10267,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="3" t="s">
         <v>84</v>
       </c>
@@ -10025,7 +10290,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="3" t="s">
         <v>85</v>
       </c>
@@ -10048,7 +10313,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="3" t="s">
         <v>86</v>
       </c>
@@ -10071,7 +10336,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="3" t="s">
         <v>87</v>
       </c>
@@ -10094,7 +10359,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="3" t="s">
         <v>88</v>
       </c>
@@ -10117,7 +10382,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="3" t="s">
         <v>89</v>
       </c>
@@ -10140,7 +10405,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="3" t="s">
         <v>90</v>
       </c>
@@ -10163,7 +10428,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="3" t="s">
         <v>91</v>
       </c>
@@ -10186,7 +10451,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="3" t="s">
         <v>125</v>
       </c>
@@ -10209,7 +10474,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="3" t="s">
         <v>126</v>
       </c>
@@ -10232,7 +10497,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="3" t="s">
         <v>127</v>
       </c>
@@ -10255,7 +10520,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="3" t="s">
         <v>128</v>
       </c>
@@ -10278,7 +10543,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="3" t="s">
         <v>129</v>
       </c>
@@ -10301,7 +10566,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="3" t="s">
         <v>130</v>
       </c>
@@ -10324,7 +10589,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="3" t="s">
         <v>131</v>
       </c>
@@ -10347,7 +10612,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="3" t="s">
         <v>132</v>
       </c>
@@ -10370,7 +10635,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="3" t="s">
         <v>133</v>
       </c>
@@ -10393,7 +10658,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="3" t="s">
         <v>134</v>
       </c>
@@ -10416,7 +10681,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="3" t="s">
         <v>135</v>
       </c>
@@ -10439,7 +10704,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="3" t="s">
         <v>136</v>
       </c>
@@ -10462,7 +10727,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="3" t="s">
         <v>137</v>
       </c>
@@ -10485,7 +10750,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="3" t="s">
         <v>138</v>
       </c>
@@ -10508,7 +10773,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="3" t="s">
         <v>139</v>
       </c>
@@ -10531,7 +10796,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="9" t="s">
         <v>213</v>
       </c>
@@ -10554,7 +10819,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="3" t="s">
         <v>304</v>
       </c>
@@ -10577,7 +10842,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="3" t="s">
         <v>305</v>
       </c>
@@ -10600,7 +10865,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="3" t="s">
         <v>306</v>
       </c>
@@ -10623,7 +10888,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="3" t="s">
         <v>307</v>
       </c>
@@ -10646,7 +10911,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="3" t="s">
         <v>309</v>
       </c>
@@ -10669,7 +10934,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="3" t="s">
         <v>308</v>
       </c>
@@ -10692,7 +10957,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="3" t="s">
         <v>187</v>
       </c>
@@ -10715,7 +10980,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="3" t="s">
         <v>188</v>
       </c>
@@ -10738,7 +11003,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="3" t="s">
         <v>189</v>
       </c>
@@ -10761,7 +11026,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="3" t="s">
         <v>190</v>
       </c>
@@ -10784,7 +11049,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="3" t="s">
         <v>191</v>
       </c>
@@ -10807,7 +11072,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="3" t="s">
         <v>192</v>
       </c>
@@ -10830,7 +11095,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="3" t="s">
         <v>193</v>
       </c>
@@ -10853,7 +11118,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="3" t="s">
         <v>194</v>
       </c>
@@ -10876,7 +11141,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="3" t="s">
         <v>195</v>
       </c>
@@ -10899,7 +11164,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="3" t="s">
         <v>196</v>
       </c>
@@ -10922,7 +11187,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="3" t="s">
         <v>197</v>
       </c>
@@ -10945,7 +11210,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="3" t="s">
         <v>198</v>
       </c>
@@ -10968,7 +11233,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="3" t="s">
         <v>199</v>
       </c>
@@ -10991,7 +11256,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="3" t="s">
         <v>200</v>
       </c>
@@ -11014,7 +11279,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -11037,7 +11302,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="9" t="s">
         <v>283</v>
       </c>
@@ -11060,7 +11325,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="9" t="s">
         <v>284</v>
       </c>
@@ -11083,7 +11348,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="9" t="s">
         <v>285</v>
       </c>
@@ -11106,7 +11371,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="9" t="s">
         <v>286</v>
       </c>
@@ -11129,7 +11394,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="9" t="s">
         <v>287</v>
       </c>
@@ -11152,7 +11417,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="9" t="s">
         <v>288</v>
       </c>
@@ -11175,7 +11440,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="9" t="s">
         <v>289</v>
       </c>
@@ -11198,7 +11463,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="9" t="s">
         <v>290</v>
       </c>
@@ -11221,7 +11486,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="9" t="s">
         <v>291</v>
       </c>
@@ -11244,7 +11509,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="9" t="s">
         <v>292</v>
       </c>
@@ -11267,7 +11532,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="9" t="s">
         <v>293</v>
       </c>
@@ -11290,7 +11555,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="9" t="s">
         <v>294</v>
       </c>
@@ -11313,7 +11578,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="8" t="s">
         <v>201</v>
       </c>
@@ -11336,7 +11601,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="8" t="s">
         <v>202</v>
       </c>
@@ -11359,7 +11624,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="8" t="s">
         <v>203</v>
       </c>
@@ -11380,6 +11645,645 @@
       </c>
       <c r="G299" s="3" t="s">
         <v>1252</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -11392,33 +12296,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" style="2"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="21.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="25.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="19.41796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.15625" style="2"/>
+    <col min="10" max="10" width="21.15625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" style="2"/>
+    <col min="12" max="12" width="25.41796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>1238</v>
       </c>
@@ -11429,7 +12333,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -11440,7 +12344,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -11451,7 +12355,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -11462,7 +12366,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -11473,7 +12377,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -11484,7 +12388,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -11495,7 +12399,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -11506,7 +12410,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -11517,10 +12421,10 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>1238</v>
       </c>
@@ -11528,7 +12432,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5">
         <v>1</v>
       </c>
@@ -11536,7 +12440,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -11544,7 +12448,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -11552,7 +12456,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -11560,7 +12464,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="5">
         <v>16</v>
       </c>
@@ -11568,7 +12472,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5">
         <v>32</v>
       </c>
@@ -11576,7 +12480,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="5">
         <v>64</v>
       </c>
@@ -11584,10 +12488,10 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="5" t="s">
         <v>1238</v>
       </c>
@@ -11595,7 +12499,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="5">
         <v>0</v>
       </c>
@@ -11603,7 +12507,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5">
         <v>1</v>
       </c>
@@ -11611,7 +12515,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -11619,7 +12523,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -11627,7 +12531,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="5">
         <v>4</v>
       </c>
@@ -11635,7 +12539,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="5">
         <v>5</v>
       </c>
@@ -11643,7 +12547,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="5">
         <v>6</v>
       </c>
@@ -11651,7 +12555,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="5">
         <v>7</v>
       </c>
@@ -11659,10 +12563,10 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
